--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sele</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.1456986036693</v>
+        <v>41.42009833333334</v>
       </c>
       <c r="H2">
-        <v>41.1456986036693</v>
+        <v>124.260295</v>
       </c>
       <c r="I2">
-        <v>0.8003762011955078</v>
+        <v>0.731333508387612</v>
       </c>
       <c r="J2">
-        <v>0.8003762011955078</v>
+        <v>0.7313335083876121</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N2">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P2">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q2">
-        <v>99.85054269419508</v>
+        <v>268.8391225905206</v>
       </c>
       <c r="R2">
-        <v>99.85054269419508</v>
+        <v>2419.552103314685</v>
       </c>
       <c r="S2">
-        <v>0.5023752671853868</v>
+        <v>0.586651366883005</v>
       </c>
       <c r="T2">
-        <v>0.5023752671853868</v>
+        <v>0.586651366883005</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.1456986036693</v>
+        <v>41.42009833333334</v>
       </c>
       <c r="H3">
-        <v>41.1456986036693</v>
+        <v>124.260295</v>
       </c>
       <c r="I3">
-        <v>0.8003762011955078</v>
+        <v>0.731333508387612</v>
       </c>
       <c r="J3">
-        <v>0.8003762011955078</v>
+        <v>0.7313335083876121</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N3">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P3">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q3">
-        <v>59.22973706686716</v>
+        <v>66.30210406442833</v>
       </c>
       <c r="R3">
-        <v>59.22973706686716</v>
+        <v>596.718936579855</v>
       </c>
       <c r="S3">
-        <v>0.298000934010121</v>
+        <v>0.1446821415046071</v>
       </c>
       <c r="T3">
-        <v>0.298000934010121</v>
+        <v>0.1446821415046071</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>10.0368664889622</v>
+        <v>0.1042846666666667</v>
       </c>
       <c r="H4">
-        <v>10.0368664889622</v>
+        <v>0.312854</v>
       </c>
       <c r="I4">
-        <v>0.1952395838437816</v>
+        <v>0.001841301064294898</v>
       </c>
       <c r="J4">
-        <v>0.1952395838437816</v>
+        <v>0.001841301064294898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N4">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P4">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q4">
-        <v>24.35701907811775</v>
+        <v>0.6768645999024445</v>
       </c>
       <c r="R4">
-        <v>24.35701907811775</v>
+        <v>6.091781399122</v>
       </c>
       <c r="S4">
-        <v>0.1225467948099629</v>
+        <v>0.001477030347745558</v>
       </c>
       <c r="T4">
-        <v>0.1225467948099629</v>
+        <v>0.001477030347745558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>10.0368664889622</v>
+        <v>0.1042846666666667</v>
       </c>
       <c r="H5">
-        <v>10.0368664889622</v>
+        <v>0.312854</v>
       </c>
       <c r="I5">
-        <v>0.1952395838437816</v>
+        <v>0.001841301064294898</v>
       </c>
       <c r="J5">
-        <v>0.1952395838437816</v>
+        <v>0.001841301064294898</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.43951224737706</v>
+        <v>1.600723</v>
       </c>
       <c r="N5">
-        <v>1.43951224737706</v>
+        <v>4.802169</v>
       </c>
       <c r="O5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="P5">
-        <v>0.3723260806168428</v>
+        <v>0.1978333275383364</v>
       </c>
       <c r="Q5">
-        <v>14.44819223614948</v>
+        <v>0.1669308644806667</v>
       </c>
       <c r="R5">
-        <v>14.44819223614948</v>
+        <v>1.502377780326</v>
       </c>
       <c r="S5">
-        <v>0.07269278903381866</v>
+        <v>0.00036427071654934</v>
       </c>
       <c r="T5">
-        <v>0.07269278903381866</v>
+        <v>0.0003642707165493399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.225383497307444</v>
+        <v>14.793565</v>
       </c>
       <c r="H6">
-        <v>0.225383497307444</v>
+        <v>44.380695</v>
       </c>
       <c r="I6">
-        <v>0.00438421496071045</v>
+        <v>0.2612024169026039</v>
       </c>
       <c r="J6">
-        <v>0.00438421496071045</v>
+        <v>0.2612024169026039</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42675531301565</v>
+        <v>6.490547666666667</v>
       </c>
       <c r="N6">
-        <v>2.42675531301565</v>
+        <v>19.471643</v>
       </c>
       <c r="O6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616637</v>
       </c>
       <c r="P6">
-        <v>0.6276739193831573</v>
+        <v>0.8021666724616636</v>
       </c>
       <c r="Q6">
-        <v>0.5469505995568882</v>
+        <v>96.01833879243166</v>
       </c>
       <c r="R6">
-        <v>0.5469505995568882</v>
+        <v>864.165049131885</v>
       </c>
       <c r="S6">
-        <v>0.002751857387807403</v>
+        <v>0.209527873605706</v>
       </c>
       <c r="T6">
-        <v>0.002751857387807403</v>
+        <v>0.209527873605706</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,185 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>14.793565</v>
+      </c>
+      <c r="H7">
+        <v>44.380695</v>
+      </c>
+      <c r="I7">
+        <v>0.2612024169026039</v>
+      </c>
+      <c r="J7">
+        <v>0.2612024169026039</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.600723</v>
+      </c>
+      <c r="N7">
+        <v>4.802169</v>
+      </c>
+      <c r="O7">
+        <v>0.1978333275383364</v>
+      </c>
+      <c r="P7">
+        <v>0.1978333275383364</v>
+      </c>
+      <c r="Q7">
+        <v>23.680399747495</v>
+      </c>
+      <c r="R7">
+        <v>213.123597727455</v>
+      </c>
+      <c r="S7">
+        <v>0.05167454329689794</v>
+      </c>
+      <c r="T7">
+        <v>0.05167454329689793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.225383497307444</v>
-      </c>
-      <c r="H7">
-        <v>0.225383497307444</v>
-      </c>
-      <c r="I7">
-        <v>0.00438421496071045</v>
-      </c>
-      <c r="J7">
-        <v>0.00438421496071045</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.43951224737706</v>
-      </c>
-      <c r="N7">
-        <v>1.43951224737706</v>
-      </c>
-      <c r="O7">
-        <v>0.3723260806168428</v>
-      </c>
-      <c r="P7">
-        <v>0.3723260806168428</v>
-      </c>
-      <c r="Q7">
-        <v>0.3244423047307403</v>
-      </c>
-      <c r="R7">
-        <v>0.3244423047307403</v>
-      </c>
-      <c r="S7">
-        <v>0.001632357572903047</v>
-      </c>
-      <c r="T7">
-        <v>0.001632357572903047</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3184536666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.955361</v>
+      </c>
+      <c r="I8">
+        <v>0.005622773645489071</v>
+      </c>
+      <c r="J8">
+        <v>0.005622773645489071</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.490547666666667</v>
+      </c>
+      <c r="N8">
+        <v>19.471643</v>
+      </c>
+      <c r="O8">
+        <v>0.8021666724616637</v>
+      </c>
+      <c r="P8">
+        <v>0.8021666724616636</v>
+      </c>
+      <c r="Q8">
+        <v>2.066938703124778</v>
+      </c>
+      <c r="R8">
+        <v>18.602448328123</v>
+      </c>
+      <c r="S8">
+        <v>0.004510401625207106</v>
+      </c>
+      <c r="T8">
+        <v>0.004510401625207106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3184536666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.955361</v>
+      </c>
+      <c r="I9">
+        <v>0.005622773645489071</v>
+      </c>
+      <c r="J9">
+        <v>0.005622773645489071</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.600723</v>
+      </c>
+      <c r="N9">
+        <v>4.802169</v>
+      </c>
+      <c r="O9">
+        <v>0.1978333275383364</v>
+      </c>
+      <c r="P9">
+        <v>0.1978333275383364</v>
+      </c>
+      <c r="Q9">
+        <v>0.5097561086676667</v>
+      </c>
+      <c r="R9">
+        <v>4.587804978009</v>
+      </c>
+      <c r="S9">
+        <v>0.001112372020281965</v>
+      </c>
+      <c r="T9">
+        <v>0.001112372020281965</v>
       </c>
     </row>
   </sheetData>
